--- a/Code/Results/Cases/Case_1_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_120/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.425688251588298</v>
+        <v>0.9633329015805998</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1023226326655298</v>
+        <v>0.203555524993007</v>
       </c>
       <c r="E2">
-        <v>0.165887983884371</v>
+        <v>0.207163166437752</v>
       </c>
       <c r="F2">
-        <v>0.789900370050816</v>
+        <v>1.359360498981786</v>
       </c>
       <c r="G2">
-        <v>0.0007844938553322916</v>
+        <v>0.002441103864676292</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3049835843883759</v>
+        <v>0.9106198446675613</v>
       </c>
       <c r="J2">
-        <v>0.2765465156979303</v>
+        <v>0.2651511547096064</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7124407033102216</v>
+        <v>0.3842297507223407</v>
       </c>
       <c r="M2">
-        <v>0.4983315274157718</v>
+        <v>0.3043433590389668</v>
       </c>
       <c r="N2">
-        <v>1.192592227757913</v>
+        <v>1.648363412763231</v>
       </c>
       <c r="O2">
-        <v>2.464589300567582</v>
+        <v>3.353242973395652</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.248358526787001</v>
+        <v>0.9125628844234939</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1004952482480235</v>
+        <v>0.2033081500342391</v>
       </c>
       <c r="E3">
-        <v>0.1577497553481813</v>
+        <v>0.204701574945318</v>
       </c>
       <c r="F3">
-        <v>0.7407046712528711</v>
+        <v>1.358013640946311</v>
       </c>
       <c r="G3">
-        <v>0.0007891650766927264</v>
+        <v>0.002444343894617368</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3252436033365695</v>
+        <v>0.9232703879013169</v>
       </c>
       <c r="J3">
-        <v>0.2586718857536354</v>
+        <v>0.2594556388490616</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6209182913415248</v>
+        <v>0.3580789927378021</v>
       </c>
       <c r="M3">
-        <v>0.4353506944445442</v>
+        <v>0.2863196614769095</v>
       </c>
       <c r="N3">
-        <v>1.184128144238159</v>
+        <v>1.649826801869807</v>
       </c>
       <c r="O3">
-        <v>2.257282963538898</v>
+        <v>3.327764594268018</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.139731910581759</v>
+        <v>0.8815858646239008</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09939981190201763</v>
+        <v>0.2031702378077895</v>
       </c>
       <c r="E4">
-        <v>0.1527621619331256</v>
+        <v>0.2031911967146733</v>
       </c>
       <c r="F4">
-        <v>0.7119997380475098</v>
+        <v>1.357969042828422</v>
       </c>
       <c r="G4">
-        <v>0.0007921324370926006</v>
+        <v>0.002446442261447968</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3384375434872249</v>
+        <v>0.9314850100037857</v>
       </c>
       <c r="J4">
-        <v>0.2476925081994494</v>
+        <v>0.2559483652670309</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5648891177289102</v>
+        <v>0.3420906157806058</v>
       </c>
       <c r="M4">
-        <v>0.3967789420394894</v>
+        <v>0.2753122552522953</v>
       </c>
       <c r="N4">
-        <v>1.180006228978058</v>
+        <v>1.651291340439258</v>
       </c>
       <c r="O4">
-        <v>2.134443402092614</v>
+        <v>3.31420766776597</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.095518221443001</v>
+        <v>0.8690128740341549</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09895966136066292</v>
+        <v>0.2031175701993817</v>
       </c>
       <c r="E5">
-        <v>0.1507315252270232</v>
+        <v>0.2025760277623583</v>
       </c>
       <c r="F5">
-        <v>0.700657734548372</v>
+        <v>1.358147588536418</v>
       </c>
       <c r="G5">
-        <v>0.0007933670787374661</v>
+        <v>0.002447324848989358</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3439984864440824</v>
+        <v>0.9349449483299654</v>
       </c>
       <c r="J5">
-        <v>0.2432164815973579</v>
+        <v>0.2545166808442758</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5420903093673815</v>
+        <v>0.3355928317585608</v>
       </c>
       <c r="M5">
-        <v>0.3810807719436795</v>
+        <v>0.2708418931345022</v>
       </c>
       <c r="N5">
-        <v>1.178589950526131</v>
+        <v>1.65203095495697</v>
       </c>
       <c r="O5">
-        <v>2.085426899832498</v>
+        <v>3.309207635185828</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.088179424059319</v>
+        <v>0.8669282152500841</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09888694010734156</v>
+        <v>0.2031090386874226</v>
       </c>
       <c r="E6">
-        <v>0.1503944376636639</v>
+        <v>0.2024739006288527</v>
       </c>
       <c r="F6">
-        <v>0.6987952508217319</v>
+        <v>1.358189116885114</v>
       </c>
       <c r="G6">
-        <v>0.0007935736385971191</v>
+        <v>0.002447473064621677</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.344932856160729</v>
+        <v>0.9355262572556526</v>
       </c>
       <c r="J6">
-        <v>0.2424731087021428</v>
+        <v>0.254278806894277</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5383063805955004</v>
+        <v>0.3345149560961147</v>
       </c>
       <c r="M6">
-        <v>0.378475187206206</v>
+        <v>0.2701005241390462</v>
       </c>
       <c r="N6">
-        <v>1.178370494799438</v>
+        <v>1.652162406412231</v>
       </c>
       <c r="O6">
-        <v>2.077348492790009</v>
+        <v>3.308409056593149</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.139135431210264</v>
+        <v>0.8814160953417343</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0993938511247876</v>
+        <v>0.2031695131840401</v>
       </c>
       <c r="E7">
-        <v>0.1527347691908929</v>
+        <v>0.2031828989471123</v>
       </c>
       <c r="F7">
-        <v>0.7118453647804088</v>
+        <v>1.357970654270062</v>
       </c>
       <c r="G7">
-        <v>0.0007921489844431278</v>
+        <v>0.002446454052901374</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3385118009662333</v>
+        <v>0.9315312168166576</v>
       </c>
       <c r="J7">
-        <v>0.2476321513495776</v>
+        <v>0.2559290667928096</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5645815196935331</v>
+        <v>0.3420029125146016</v>
       </c>
       <c r="M7">
-        <v>0.3965671555015078</v>
+        <v>0.2752519041877193</v>
       </c>
       <c r="N7">
-        <v>1.179986070752449</v>
+        <v>1.651300736301295</v>
       </c>
       <c r="O7">
-        <v>2.133778229341146</v>
+        <v>3.314138112125931</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.364484945600907</v>
+        <v>0.945787377241686</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1016867566416977</v>
+        <v>0.2034673398583777</v>
       </c>
       <c r="E8">
-        <v>0.1630796752818355</v>
+        <v>0.2063142264021565</v>
       </c>
       <c r="F8">
-        <v>0.7726124266251233</v>
+        <v>1.35873370590091</v>
       </c>
       <c r="G8">
-        <v>0.0007860841916119625</v>
+        <v>0.002442198459504382</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3118094217141598</v>
+        <v>0.9148889359887606</v>
       </c>
       <c r="J8">
-        <v>0.2703837428917666</v>
+        <v>0.2631895311960903</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6808442038672808</v>
+        <v>0.375199047988545</v>
       </c>
       <c r="M8">
-        <v>0.4765923054301311</v>
+        <v>0.2981167043529425</v>
       </c>
       <c r="N8">
-        <v>1.189446408858217</v>
+        <v>1.64875079390869</v>
       </c>
       <c r="O8">
-        <v>2.392139505981419</v>
+        <v>3.344024727452449</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.808990925448967</v>
+        <v>1.073531824984542</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1064162892292657</v>
+        <v>0.2041615491344118</v>
       </c>
       <c r="E9">
-        <v>0.1834658374659206</v>
+        <v>0.2124607921522248</v>
       </c>
       <c r="F9">
-        <v>0.9047491039697064</v>
+        <v>1.366440666081928</v>
       </c>
       <c r="G9">
-        <v>0.0007749557997875911</v>
+        <v>0.002434714120841377</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2656807115806767</v>
+        <v>0.8858018912990158</v>
       </c>
       <c r="J9">
-        <v>0.3150063880349308</v>
+        <v>0.277341533814095</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9105603440838479</v>
+        <v>0.4408226382452369</v>
       </c>
       <c r="M9">
-        <v>0.6345397592117692</v>
+        <v>0.3434111152000767</v>
       </c>
       <c r="N9">
-        <v>1.21686038568356</v>
+        <v>1.648221954287834</v>
       </c>
       <c r="O9">
-        <v>2.937770489996922</v>
+        <v>3.419210033938441</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.13804377008853</v>
+        <v>1.168260526646918</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1100683907292037</v>
+        <v>0.2047378671560409</v>
       </c>
       <c r="E10">
-        <v>0.1985465035266962</v>
+        <v>0.2169777313161951</v>
       </c>
       <c r="F10">
-        <v>1.011314533144784</v>
+        <v>1.375896032344471</v>
       </c>
       <c r="G10">
-        <v>0.000767212469043486</v>
+        <v>0.002429734869885792</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2359532035851828</v>
+        <v>0.8665949904700181</v>
       </c>
       <c r="J10">
-        <v>0.3478617001169368</v>
+        <v>0.2876812782573097</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.081013530308951</v>
+        <v>0.4893406864997019</v>
       </c>
       <c r="M10">
-        <v>0.7515670392764378</v>
+        <v>0.3769529009738477</v>
       </c>
       <c r="N10">
-        <v>1.24289695940989</v>
+        <v>1.650535316171229</v>
       </c>
       <c r="O10">
-        <v>3.367932375712314</v>
+        <v>3.484593135552245</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.288492180123569</v>
+        <v>1.211535637291888</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1117774307657768</v>
+        <v>0.2050142633558991</v>
       </c>
       <c r="E11">
-        <v>0.2054403192470247</v>
+        <v>0.2190323039618036</v>
       </c>
       <c r="F11">
-        <v>1.062231174474562</v>
+        <v>1.381022839609074</v>
       </c>
       <c r="G11">
-        <v>0.000763775845279867</v>
+        <v>0.002427581352575743</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2234184349608164</v>
+        <v>0.8583270420409104</v>
       </c>
       <c r="J11">
-        <v>0.3628410632308174</v>
+        <v>0.2923714614502018</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.159075912716219</v>
+        <v>0.5114757511659036</v>
       </c>
       <c r="M11">
-        <v>0.8051075848667324</v>
+        <v>0.3922664157455102</v>
       </c>
       <c r="N11">
-        <v>1.256138758212842</v>
+        <v>1.652169543621355</v>
       </c>
       <c r="O11">
-        <v>3.571312044078866</v>
+        <v>3.516549337823392</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.345591346628225</v>
+        <v>1.227948045228118</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1124323242038585</v>
+        <v>0.2051209566455938</v>
       </c>
       <c r="E12">
-        <v>0.2080566566944135</v>
+        <v>0.2198102335443259</v>
       </c>
       <c r="F12">
-        <v>1.081896738721099</v>
+        <v>1.383083016678697</v>
       </c>
       <c r="G12">
-        <v>0.0007624861299991838</v>
+        <v>0.002426781829504029</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2188216120271171</v>
+        <v>0.8552637059084454</v>
       </c>
       <c r="J12">
-        <v>0.3685197068743093</v>
+        <v>0.2941454683614921</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.188724935953132</v>
+        <v>0.5198665469870036</v>
       </c>
       <c r="M12">
-        <v>0.8254335287635257</v>
+        <v>0.3980728677442826</v>
       </c>
       <c r="N12">
-        <v>1.261364420183284</v>
+        <v>1.652871630485791</v>
       </c>
       <c r="O12">
-        <v>3.649553170154149</v>
+        <v>3.528969049548095</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.333288037130842</v>
+        <v>1.224412243728068</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.11229092308362</v>
+        <v>0.2050978884182797</v>
       </c>
       <c r="E13">
-        <v>0.2074929068472713</v>
+        <v>0.2196426976034971</v>
       </c>
       <c r="F13">
-        <v>1.077643739988403</v>
+        <v>1.382634037587408</v>
       </c>
       <c r="G13">
-        <v>0.0007627633861892546</v>
+        <v>0.002426953312123047</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2198048291217738</v>
+        <v>0.8559204445677011</v>
       </c>
       <c r="J13">
-        <v>0.3672964041463871</v>
+        <v>0.2937634981469444</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.182335326766804</v>
+        <v>0.5180590583078128</v>
       </c>
       <c r="M13">
-        <v>0.8210535642995325</v>
+        <v>0.3968220143834387</v>
       </c>
       <c r="N13">
-        <v>1.260229412511762</v>
+        <v>1.652716728180678</v>
       </c>
       <c r="O13">
-        <v>3.632646037492691</v>
+        <v>3.526280067408038</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.293187095438952</v>
+        <v>1.212885400468338</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1118311492611177</v>
+        <v>0.2050230005332452</v>
       </c>
       <c r="E14">
-        <v>0.2056554446570331</v>
+        <v>0.2190963069101421</v>
       </c>
       <c r="F14">
-        <v>1.063841163030574</v>
+        <v>1.381189951026343</v>
       </c>
       <c r="G14">
-        <v>0.0007636695099860765</v>
+        <v>0.002427515255847527</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2230372031569967</v>
+        <v>0.8580736652434346</v>
       </c>
       <c r="J14">
-        <v>0.3633081135187126</v>
+        <v>0.2925174521925555</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.161513301299806</v>
+        <v>0.5121658947717549</v>
       </c>
       <c r="M14">
-        <v>0.8067787388087098</v>
+        <v>0.3927439667783617</v>
       </c>
       <c r="N14">
-        <v>1.256564380831264</v>
+        <v>1.652225638917315</v>
       </c>
       <c r="O14">
-        <v>3.577723709837471</v>
+        <v>3.517564727934428</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.268641297295915</v>
+        <v>1.205828104854106</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1115505569117445</v>
+        <v>0.2049773931310455</v>
       </c>
       <c r="E15">
-        <v>0.2045307322505359</v>
+        <v>0.218761612924709</v>
       </c>
       <c r="F15">
-        <v>1.05543780991907</v>
+        <v>1.380320874936729</v>
       </c>
       <c r="G15">
-        <v>0.0007642260342292556</v>
+        <v>0.002427861539700079</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2250368732298167</v>
+        <v>0.8594013747815055</v>
       </c>
       <c r="J15">
-        <v>0.3608660361153966</v>
+        <v>0.2917539403399587</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.148771151169456</v>
+        <v>0.5085572845460149</v>
       </c>
       <c r="M15">
-        <v>0.7980419119937423</v>
+        <v>0.3902470176682371</v>
       </c>
       <c r="N15">
-        <v>1.254347275053561</v>
+        <v>1.65193566022478</v>
       </c>
       <c r="O15">
-        <v>3.54424550481815</v>
+        <v>3.512267831234738</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.128228444263527</v>
+        <v>1.165435968154554</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1099577315333669</v>
+        <v>0.2047200887691929</v>
       </c>
       <c r="E16">
-        <v>0.1980967321020444</v>
+        <v>0.2168434506416936</v>
       </c>
       <c r="F16">
-        <v>1.008038925742426</v>
+        <v>1.375577599892324</v>
       </c>
       <c r="G16">
-        <v>0.0007674387305391118</v>
+        <v>0.002429877845759314</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2367929161366416</v>
+        <v>0.8671447705061492</v>
       </c>
       <c r="J16">
-        <v>0.3468835574798419</v>
+        <v>0.2873744822705078</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.075923598325147</v>
+        <v>0.487895354800969</v>
       </c>
       <c r="M16">
-        <v>0.7480747920155437</v>
+        <v>0.3759532048198508</v>
       </c>
       <c r="N16">
-        <v>1.242060566427909</v>
+        <v>1.650440187198328</v>
       </c>
       <c r="O16">
-        <v>3.354805864457035</v>
+        <v>3.482549285807494</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.042297040782671</v>
+        <v>1.140702609783261</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1089933760146913</v>
+        <v>0.2045658719299794</v>
       </c>
       <c r="E17">
-        <v>0.1941589296308699</v>
+        <v>0.215666622719727</v>
       </c>
       <c r="F17">
-        <v>0.9796092673919503</v>
+        <v>1.372879229930177</v>
       </c>
       <c r="G17">
-        <v>0.0007694311324559902</v>
+        <v>0.002431143305303445</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2442633479976699</v>
+        <v>0.8720153531667698</v>
       </c>
       <c r="J17">
-        <v>0.3383152995374274</v>
+        <v>0.2846842942912957</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.031376928905445</v>
+        <v>0.4752359771599686</v>
       </c>
       <c r="M17">
-        <v>0.7175046826613567</v>
+        <v>0.367198278201684</v>
       </c>
       <c r="N17">
-        <v>1.234888161042846</v>
+        <v>1.649671484147021</v>
       </c>
       <c r="O17">
-        <v>3.240643790793797</v>
+        <v>3.464884998802063</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.992941986145809</v>
+        <v>1.126493889389621</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1084431345842773</v>
+        <v>0.2044785105732387</v>
       </c>
       <c r="E18">
-        <v>0.1918971019909392</v>
+        <v>0.2149897268221572</v>
       </c>
       <c r="F18">
-        <v>0.9634847298058844</v>
+        <v>1.371404896667642</v>
       </c>
       <c r="G18">
-        <v>0.0007705852345784526</v>
+        <v>0.00243188166992017</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2486526903704291</v>
+        <v>0.8748609587980578</v>
       </c>
       <c r="J18">
-        <v>0.3333901005158992</v>
+        <v>0.283135714314227</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.005803162918966</v>
+        <v>0.4679606863418542</v>
       </c>
       <c r="M18">
-        <v>0.6999497130776859</v>
+        <v>0.3621678931835746</v>
       </c>
       <c r="N18">
-        <v>1.23089367972139</v>
+        <v>1.649284139985866</v>
       </c>
       <c r="O18">
-        <v>3.175697600323957</v>
+        <v>3.454933254834032</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.976242774627508</v>
+        <v>1.121686060294564</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1082575687128333</v>
+        <v>0.2044491622208326</v>
       </c>
       <c r="E19">
-        <v>0.1911317893273541</v>
+        <v>0.2147605407414517</v>
       </c>
       <c r="F19">
-        <v>0.9580633164951706</v>
+        <v>1.370919055638936</v>
       </c>
       <c r="G19">
-        <v>0.000770977409235479</v>
+        <v>0.002432133474401495</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2501545148716779</v>
+        <v>0.8758320172399738</v>
       </c>
       <c r="J19">
-        <v>0.3317229916460747</v>
+        <v>0.2826111802857127</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9971522321129669</v>
+        <v>0.4654984510403324</v>
       </c>
       <c r="M19">
-        <v>0.6940105167666246</v>
+        <v>0.3604655988962548</v>
       </c>
       <c r="N19">
-        <v>1.229563395274937</v>
+        <v>1.649162415998632</v>
       </c>
       <c r="O19">
-        <v>3.153827579276083</v>
+        <v>3.451599528082596</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.051437170137035</v>
+        <v>1.143333740977027</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1090955688874864</v>
+        <v>0.2045821500116034</v>
       </c>
       <c r="E20">
-        <v>0.1945777887145219</v>
+        <v>0.2157919001327002</v>
       </c>
       <c r="F20">
-        <v>0.9826118765883223</v>
+        <v>1.373158434163727</v>
       </c>
       <c r="G20">
-        <v>0.0007692182018280135</v>
+        <v>0.002431007508219919</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2434584752829849</v>
+        <v>0.8714922989002005</v>
       </c>
       <c r="J20">
-        <v>0.3392270807293869</v>
+        <v>0.2849708002551097</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.036113905870167</v>
+        <v>0.4765829669470349</v>
       </c>
       <c r="M20">
-        <v>0.7207559570171682</v>
+        <v>0.3681297178765846</v>
       </c>
       <c r="N20">
-        <v>1.235638055996631</v>
+        <v>1.649747646121853</v>
       </c>
       <c r="O20">
-        <v>3.25272151958211</v>
+        <v>3.466743832866428</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.304962097739349</v>
+        <v>1.216270443002372</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1119659791350074</v>
+        <v>0.2050449420198461</v>
       </c>
       <c r="E21">
-        <v>0.2061949860744576</v>
+        <v>0.2192567981121734</v>
       </c>
       <c r="F21">
-        <v>1.067884596383564</v>
+        <v>1.381610890502714</v>
       </c>
       <c r="G21">
-        <v>0.000763403048766536</v>
+        <v>0.002427349766696458</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2220836467519867</v>
+        <v>0.8574393781750178</v>
       </c>
       <c r="J21">
-        <v>0.3644793878028736</v>
+        <v>0.2928835031689943</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.167626720704675</v>
+        <v>0.5138966266431737</v>
       </c>
       <c r="M21">
-        <v>0.810970145408362</v>
+        <v>0.3939415861591513</v>
       </c>
       <c r="N21">
-        <v>1.257635070003786</v>
+        <v>1.652367628024479</v>
       </c>
       <c r="O21">
-        <v>3.593821470211594</v>
+        <v>3.520115985136442</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.471408712817663</v>
+        <v>1.264084329961747</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1138874201374875</v>
+        <v>0.2053592162832061</v>
       </c>
       <c r="E22">
-        <v>0.2138218413280732</v>
+        <v>0.2215207410731672</v>
       </c>
       <c r="F22">
-        <v>1.125874202503198</v>
+        <v>1.387827347898565</v>
       </c>
       <c r="G22">
-        <v>0.0007596701152722233</v>
+        <v>0.002425052254181857</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2089911604609789</v>
+        <v>0.8486487822407511</v>
       </c>
       <c r="J22">
-        <v>0.3810206859655096</v>
+        <v>0.2980428212446498</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.254100838974097</v>
+        <v>0.5383339117312005</v>
       </c>
       <c r="M22">
-        <v>0.8702333323176035</v>
+        <v>0.4108550025281659</v>
       </c>
       <c r="N22">
-        <v>1.273248154620347</v>
+        <v>1.654564930673217</v>
       </c>
       <c r="O22">
-        <v>3.823956261007481</v>
+        <v>3.556854928287464</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.382497661533762</v>
+        <v>1.238552233678547</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1128574374673299</v>
+        <v>0.2051904071015755</v>
       </c>
       <c r="E23">
-        <v>0.2097477474771523</v>
+        <v>0.2203125048377075</v>
       </c>
       <c r="F23">
-        <v>1.094705523671749</v>
+        <v>1.384446143884517</v>
       </c>
       <c r="G23">
-        <v>0.0007616565064520744</v>
+        <v>0.002426269992279939</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2158959345531581</v>
+        <v>0.8533044353549979</v>
       </c>
       <c r="J23">
-        <v>0.3721883146364462</v>
+        <v>0.2952903466242134</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.207895393866949</v>
+        <v>0.5252867932804293</v>
       </c>
       <c r="M23">
-        <v>0.8385730642838709</v>
+        <v>0.4018241051809142</v>
       </c>
       <c r="N23">
-        <v>1.264798415270661</v>
+        <v>1.653347952906586</v>
       </c>
       <c r="O23">
-        <v>3.700427819011054</v>
+        <v>3.537076617681976</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.047304769339746</v>
+        <v>1.142144172777023</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.109049354535415</v>
+        <v>0.2045747866422545</v>
       </c>
       <c r="E24">
-        <v>0.1943884161552347</v>
+        <v>0.2157352632132188</v>
       </c>
       <c r="F24">
-        <v>0.9812537140788038</v>
+        <v>1.373031966094942</v>
       </c>
       <c r="G24">
-        <v>0.0007693144408898932</v>
+        <v>0.002431068868149144</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2438220644929334</v>
+        <v>0.8717286301866842</v>
       </c>
       <c r="J24">
-        <v>0.3388148620505689</v>
+        <v>0.2848412769900222</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.033972205244936</v>
+        <v>0.4759739842498334</v>
       </c>
       <c r="M24">
-        <v>0.7192859935455687</v>
+        <v>0.3677086048153768</v>
       </c>
       <c r="N24">
-        <v>1.23529862735964</v>
+        <v>1.649713043204287</v>
       </c>
       <c r="O24">
-        <v>3.24725904708643</v>
+        <v>3.465902819521204</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.688374223882732</v>
+        <v>1.038816533331669</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1051084818268855</v>
+        <v>0.2039620441496517</v>
       </c>
       <c r="E25">
-        <v>0.1779360943669452</v>
+        <v>0.2107976084361916</v>
       </c>
       <c r="F25">
-        <v>0.8674575930187416</v>
+        <v>1.363690126009004</v>
       </c>
       <c r="G25">
-        <v>0.0007778877941882723</v>
+        <v>0.002436647222660006</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2774561085082343</v>
+        <v>0.8932908129163302</v>
       </c>
       <c r="J25">
-        <v>0.3029275811046617</v>
+        <v>0.2735227871354837</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8481693983512173</v>
+        <v>0.4230150890209075</v>
       </c>
       <c r="M25">
-        <v>0.591665998800238</v>
+        <v>0.3311103836876015</v>
       </c>
       <c r="N25">
-        <v>1.208446405518828</v>
+        <v>1.647888821900978</v>
       </c>
       <c r="O25">
-        <v>2.785442858785785</v>
+        <v>3.39709170153742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_120/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9633329015805998</v>
+        <v>1.425688251588298</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.203555524993007</v>
+        <v>0.1023226326653983</v>
       </c>
       <c r="E2">
-        <v>0.207163166437752</v>
+        <v>0.1658879838843426</v>
       </c>
       <c r="F2">
-        <v>1.359360498981786</v>
+        <v>0.7899003700508302</v>
       </c>
       <c r="G2">
-        <v>0.002441103864676292</v>
+        <v>0.0007844938553604535</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9106198446675613</v>
+        <v>0.304983584388375</v>
       </c>
       <c r="J2">
-        <v>0.2651511547096064</v>
+        <v>0.2765465156980156</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3842297507223407</v>
+        <v>0.7124407033101932</v>
       </c>
       <c r="M2">
-        <v>0.3043433590389668</v>
+        <v>0.4983315274157647</v>
       </c>
       <c r="N2">
-        <v>1.648363412763231</v>
+        <v>1.192592227757856</v>
       </c>
       <c r="O2">
-        <v>3.353242973395652</v>
+        <v>2.464589300567667</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9125628844234939</v>
+        <v>1.248358526786888</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2033081500342391</v>
+        <v>0.1004952482479027</v>
       </c>
       <c r="E3">
-        <v>0.204701574945318</v>
+        <v>0.1577497553481955</v>
       </c>
       <c r="F3">
-        <v>1.358013640946311</v>
+        <v>0.740704671252864</v>
       </c>
       <c r="G3">
-        <v>0.002444343894617368</v>
+        <v>0.0007891650766069671</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9232703879013169</v>
+        <v>0.3252436033365704</v>
       </c>
       <c r="J3">
-        <v>0.2594556388490616</v>
+        <v>0.2586718857537917</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3580789927378021</v>
+        <v>0.6209182913414821</v>
       </c>
       <c r="M3">
-        <v>0.2863196614769095</v>
+        <v>0.4353506944445158</v>
       </c>
       <c r="N3">
-        <v>1.649826801869807</v>
+        <v>1.184128144238159</v>
       </c>
       <c r="O3">
-        <v>3.327764594268018</v>
+        <v>2.257282963538927</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8815858646239008</v>
+        <v>1.139731910581673</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2031702378077895</v>
+        <v>0.09939981190194658</v>
       </c>
       <c r="E4">
-        <v>0.2031911967146733</v>
+        <v>0.152762161933115</v>
       </c>
       <c r="F4">
-        <v>1.357969042828422</v>
+        <v>0.7119997380474885</v>
       </c>
       <c r="G4">
-        <v>0.002446442261447968</v>
+        <v>0.0007921324371197873</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9314850100037857</v>
+        <v>0.3384375434872151</v>
       </c>
       <c r="J4">
-        <v>0.2559483652670309</v>
+        <v>0.2476925081994139</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3420906157806058</v>
+        <v>0.5648891177288533</v>
       </c>
       <c r="M4">
-        <v>0.2753122552522953</v>
+        <v>0.3967789420395036</v>
       </c>
       <c r="N4">
-        <v>1.651291340439258</v>
+        <v>1.180006228978016</v>
       </c>
       <c r="O4">
-        <v>3.31420766776597</v>
+        <v>2.134443402092529</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8690128740341549</v>
+        <v>1.095518221443029</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2031175701993817</v>
+        <v>0.09895966136078371</v>
       </c>
       <c r="E5">
-        <v>0.2025760277623583</v>
+        <v>0.1507315252270196</v>
       </c>
       <c r="F5">
-        <v>1.358147588536418</v>
+        <v>0.7006577345483649</v>
       </c>
       <c r="G5">
-        <v>0.002447324848989358</v>
+        <v>0.0007933670787374187</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9349449483299654</v>
+        <v>0.343998486444085</v>
       </c>
       <c r="J5">
-        <v>0.2545166808442758</v>
+        <v>0.2432164815972939</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3355928317585608</v>
+        <v>0.5420903093673246</v>
       </c>
       <c r="M5">
-        <v>0.2708418931345022</v>
+        <v>0.3810807719436653</v>
       </c>
       <c r="N5">
-        <v>1.65203095495697</v>
+        <v>1.178589950526131</v>
       </c>
       <c r="O5">
-        <v>3.309207635185828</v>
+        <v>2.085426899832527</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8669282152500841</v>
+        <v>1.08817942405949</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2031090386874226</v>
+        <v>0.09888694010727761</v>
       </c>
       <c r="E6">
-        <v>0.2024739006288527</v>
+        <v>0.1503944376636781</v>
       </c>
       <c r="F6">
-        <v>1.358189116885114</v>
+        <v>0.698795250821739</v>
       </c>
       <c r="G6">
-        <v>0.002447473064621677</v>
+        <v>0.0007935736385674323</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9355262572556526</v>
+        <v>0.3449328561607352</v>
       </c>
       <c r="J6">
-        <v>0.254278806894277</v>
+        <v>0.2424731087021783</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3345149560961147</v>
+        <v>0.5383063805956994</v>
       </c>
       <c r="M6">
-        <v>0.2701005241390462</v>
+        <v>0.3784751872061989</v>
       </c>
       <c r="N6">
-        <v>1.652162406412231</v>
+        <v>1.178370494799452</v>
       </c>
       <c r="O6">
-        <v>3.308409056593149</v>
+        <v>2.077348492790009</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8814160953417343</v>
+        <v>1.139135431210178</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2031695131840401</v>
+        <v>0.09939385112477694</v>
       </c>
       <c r="E7">
-        <v>0.2031828989471123</v>
+        <v>0.1527347691908751</v>
       </c>
       <c r="F7">
-        <v>1.357970654270062</v>
+        <v>0.7118453647804088</v>
       </c>
       <c r="G7">
-        <v>0.002446454052901374</v>
+        <v>0.0007921489844146364</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9315312168166576</v>
+        <v>0.3385118009662342</v>
       </c>
       <c r="J7">
-        <v>0.2559290667928096</v>
+        <v>0.2476321513495563</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3420029125146016</v>
+        <v>0.5645815196933341</v>
       </c>
       <c r="M7">
-        <v>0.2752519041877193</v>
+        <v>0.3965671555015007</v>
       </c>
       <c r="N7">
-        <v>1.651300736301295</v>
+        <v>1.179986070752449</v>
       </c>
       <c r="O7">
-        <v>3.314138112125931</v>
+        <v>2.133778229341146</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.945787377241686</v>
+        <v>1.364484945600907</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2034673398583777</v>
+        <v>0.1016867566416977</v>
       </c>
       <c r="E8">
-        <v>0.2063142264021565</v>
+        <v>0.1630796752818178</v>
       </c>
       <c r="F8">
-        <v>1.35873370590091</v>
+        <v>0.7726124266251233</v>
       </c>
       <c r="G8">
-        <v>0.002442198459504382</v>
+        <v>0.0007860841916116037</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9148889359887606</v>
+        <v>0.3118094217141651</v>
       </c>
       <c r="J8">
-        <v>0.2631895311960903</v>
+        <v>0.27038374289166</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.375199047988545</v>
+        <v>0.6808442038672808</v>
       </c>
       <c r="M8">
-        <v>0.2981167043529425</v>
+        <v>0.476592305430124</v>
       </c>
       <c r="N8">
-        <v>1.64875079390869</v>
+        <v>1.189446408858217</v>
       </c>
       <c r="O8">
-        <v>3.344024727452449</v>
+        <v>2.392139505981362</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.073531824984542</v>
+        <v>1.808990925449109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2041615491344118</v>
+        <v>0.1064162892290952</v>
       </c>
       <c r="E9">
-        <v>0.2124607921522248</v>
+        <v>0.1834658374659242</v>
       </c>
       <c r="F9">
-        <v>1.366440666081928</v>
+        <v>0.9047491039697206</v>
       </c>
       <c r="G9">
-        <v>0.002434714120841377</v>
+        <v>0.0007749557998210807</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8858018912990158</v>
+        <v>0.2656807115806785</v>
       </c>
       <c r="J9">
-        <v>0.277341533814095</v>
+        <v>0.3150063880349876</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4408226382452369</v>
+        <v>0.9105603440839047</v>
       </c>
       <c r="M9">
-        <v>0.3434111152000767</v>
+        <v>0.6345397592117692</v>
       </c>
       <c r="N9">
-        <v>1.648221954287834</v>
+        <v>1.21686038568356</v>
       </c>
       <c r="O9">
-        <v>3.419210033938441</v>
+        <v>2.937770489996836</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.168260526646918</v>
+        <v>2.138043770088416</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2047378671560409</v>
+        <v>0.1100683907294169</v>
       </c>
       <c r="E10">
-        <v>0.2169777313161951</v>
+        <v>0.1985465035266927</v>
       </c>
       <c r="F10">
-        <v>1.375896032344471</v>
+        <v>1.01131453314477</v>
       </c>
       <c r="G10">
-        <v>0.002429734869885792</v>
+        <v>0.0007672124690148509</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8665949904700181</v>
+        <v>0.2359532035851775</v>
       </c>
       <c r="J10">
-        <v>0.2876812782573097</v>
+        <v>0.3478617001170505</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4893406864997019</v>
+        <v>1.081013530308951</v>
       </c>
       <c r="M10">
-        <v>0.3769529009738477</v>
+        <v>0.7515670392764306</v>
       </c>
       <c r="N10">
-        <v>1.650535316171229</v>
+        <v>1.242896959409876</v>
       </c>
       <c r="O10">
-        <v>3.484593135552245</v>
+        <v>3.367932375712314</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.211535637291888</v>
+        <v>2.288492180123569</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2050142633558991</v>
+        <v>0.1117774307658159</v>
       </c>
       <c r="E11">
-        <v>0.2190323039618036</v>
+        <v>0.2054403192470389</v>
       </c>
       <c r="F11">
-        <v>1.381022839609074</v>
+        <v>1.062231174474533</v>
       </c>
       <c r="G11">
-        <v>0.002427581352575743</v>
+        <v>0.0007637758452796476</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8583270420409104</v>
+        <v>0.2234184349608128</v>
       </c>
       <c r="J11">
-        <v>0.2923714614502018</v>
+        <v>0.3628410632307748</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5114757511659036</v>
+        <v>1.159075912716133</v>
       </c>
       <c r="M11">
-        <v>0.3922664157455102</v>
+        <v>0.8051075848667324</v>
       </c>
       <c r="N11">
-        <v>1.652169543621355</v>
+        <v>1.256138758212842</v>
       </c>
       <c r="O11">
-        <v>3.516549337823392</v>
+        <v>3.571312044078866</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.227948045228118</v>
+        <v>2.345591346628055</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2051209566455938</v>
+        <v>0.1124323242038621</v>
       </c>
       <c r="E12">
-        <v>0.2198102335443259</v>
+        <v>0.2080566566944348</v>
       </c>
       <c r="F12">
-        <v>1.383083016678697</v>
+        <v>1.081896738721085</v>
       </c>
       <c r="G12">
-        <v>0.002426781829504029</v>
+        <v>0.0007624861299622391</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8552637059084454</v>
+        <v>0.2188216120271029</v>
       </c>
       <c r="J12">
-        <v>0.2941454683614921</v>
+        <v>0.3685197068742241</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5198665469870036</v>
+        <v>1.188724935953189</v>
       </c>
       <c r="M12">
-        <v>0.3980728677442826</v>
+        <v>0.8254335287635328</v>
       </c>
       <c r="N12">
-        <v>1.652871630485791</v>
+        <v>1.261364420183241</v>
       </c>
       <c r="O12">
-        <v>3.528969049548095</v>
+        <v>3.649553170154093</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.224412243728068</v>
+        <v>2.333288037130785</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2050978884182797</v>
+        <v>0.1122909230837337</v>
       </c>
       <c r="E13">
-        <v>0.2196426976034971</v>
+        <v>0.2074929068472855</v>
       </c>
       <c r="F13">
-        <v>1.382634037587408</v>
+        <v>1.077643739988403</v>
       </c>
       <c r="G13">
-        <v>0.002426953312123047</v>
+        <v>0.0007627633861888353</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8559204445677011</v>
+        <v>0.219804829121772</v>
       </c>
       <c r="J13">
-        <v>0.2937634981469444</v>
+        <v>0.3672964041464155</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5180590583078128</v>
+        <v>1.182335326766946</v>
       </c>
       <c r="M13">
-        <v>0.3968220143834387</v>
+        <v>0.8210535642995396</v>
       </c>
       <c r="N13">
-        <v>1.652716728180678</v>
+        <v>1.260229412511762</v>
       </c>
       <c r="O13">
-        <v>3.526280067408038</v>
+        <v>3.632646037492691</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.212885400468338</v>
+        <v>2.293187095439066</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2050230005332452</v>
+        <v>0.1118311492611888</v>
       </c>
       <c r="E14">
-        <v>0.2190963069101421</v>
+        <v>0.2056554446570331</v>
       </c>
       <c r="F14">
-        <v>1.381189951026343</v>
+        <v>1.063841163030574</v>
       </c>
       <c r="G14">
-        <v>0.002427515255847527</v>
+        <v>0.000763669509986075</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8580736652434346</v>
+        <v>0.2230372031569967</v>
       </c>
       <c r="J14">
-        <v>0.2925174521925555</v>
+        <v>0.363308113518741</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5121658947717549</v>
+        <v>1.161513301299664</v>
       </c>
       <c r="M14">
-        <v>0.3927439667783617</v>
+        <v>0.8067787388086884</v>
       </c>
       <c r="N14">
-        <v>1.652225638917315</v>
+        <v>1.256564380831264</v>
       </c>
       <c r="O14">
-        <v>3.517564727934428</v>
+        <v>3.577723709837471</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.205828104854106</v>
+        <v>2.268641297295972</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2049773931310455</v>
+        <v>0.1115505569116699</v>
       </c>
       <c r="E15">
-        <v>0.218761612924709</v>
+        <v>0.2045307322505323</v>
       </c>
       <c r="F15">
-        <v>1.380320874936729</v>
+        <v>1.05543780991907</v>
       </c>
       <c r="G15">
-        <v>0.002427861539700079</v>
+        <v>0.000764226034265915</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8594013747815055</v>
+        <v>0.225036873229806</v>
       </c>
       <c r="J15">
-        <v>0.2917539403399587</v>
+        <v>0.3608660361155245</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5085572845460149</v>
+        <v>1.148771151169427</v>
       </c>
       <c r="M15">
-        <v>0.3902470176682371</v>
+        <v>0.7980419119937352</v>
       </c>
       <c r="N15">
-        <v>1.65193566022478</v>
+        <v>1.254347275053505</v>
       </c>
       <c r="O15">
-        <v>3.512267831234738</v>
+        <v>3.54424550481815</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.165435968154554</v>
+        <v>2.128228444263641</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2047200887691929</v>
+        <v>0.1099577315333704</v>
       </c>
       <c r="E16">
-        <v>0.2168434506416936</v>
+        <v>0.1980967321020621</v>
       </c>
       <c r="F16">
-        <v>1.375577599892324</v>
+        <v>1.008038925742426</v>
       </c>
       <c r="G16">
-        <v>0.002429877845759314</v>
+        <v>0.0007674387305677202</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8671447705061492</v>
+        <v>0.2367929161366575</v>
       </c>
       <c r="J16">
-        <v>0.2873744822705078</v>
+        <v>0.3468835574797993</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.487895354800969</v>
+        <v>1.075923598325062</v>
       </c>
       <c r="M16">
-        <v>0.3759532048198508</v>
+        <v>0.7480747920155437</v>
       </c>
       <c r="N16">
-        <v>1.650440187198328</v>
+        <v>1.242060566427867</v>
       </c>
       <c r="O16">
-        <v>3.482549285807494</v>
+        <v>3.354805864457035</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.140702609783261</v>
+        <v>2.042297040782671</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2045658719299794</v>
+        <v>0.1089933760145705</v>
       </c>
       <c r="E17">
-        <v>0.215666622719727</v>
+        <v>0.1941589296308521</v>
       </c>
       <c r="F17">
-        <v>1.372879229930177</v>
+        <v>0.9796092673919645</v>
       </c>
       <c r="G17">
-        <v>0.002431143305303445</v>
+        <v>0.0007694311324554301</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8720153531667698</v>
+        <v>0.2442633479976699</v>
       </c>
       <c r="J17">
-        <v>0.2846842942912957</v>
+        <v>0.3383152995374274</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4752359771599686</v>
+        <v>1.031376928905445</v>
       </c>
       <c r="M17">
-        <v>0.367198278201684</v>
+        <v>0.7175046826613496</v>
       </c>
       <c r="N17">
-        <v>1.649671484147021</v>
+        <v>1.234888161042903</v>
       </c>
       <c r="O17">
-        <v>3.464884998802063</v>
+        <v>3.240643790793797</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.126493889389621</v>
+        <v>1.992941986146093</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2044785105732387</v>
+        <v>0.1084431345845047</v>
       </c>
       <c r="E18">
-        <v>0.2149897268221572</v>
+        <v>0.1918971019909499</v>
       </c>
       <c r="F18">
-        <v>1.371404896667642</v>
+        <v>0.9634847298058986</v>
       </c>
       <c r="G18">
-        <v>0.00243188166992017</v>
+        <v>0.0007705852345441794</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8748609587980578</v>
+        <v>0.2486526903704327</v>
       </c>
       <c r="J18">
-        <v>0.283135714314227</v>
+        <v>0.3333901005158566</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4679606863418542</v>
+        <v>1.005803162918966</v>
       </c>
       <c r="M18">
-        <v>0.3621678931835746</v>
+        <v>0.699949713077693</v>
       </c>
       <c r="N18">
-        <v>1.649284139985866</v>
+        <v>1.230893679721447</v>
       </c>
       <c r="O18">
-        <v>3.454933254834032</v>
+        <v>3.175697600323957</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.121686060294564</v>
+        <v>1.976242774627622</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2044491622208326</v>
+        <v>0.1082575687128298</v>
       </c>
       <c r="E19">
-        <v>0.2147605407414517</v>
+        <v>0.1911317893273718</v>
       </c>
       <c r="F19">
-        <v>1.370919055638936</v>
+        <v>0.9580633164951706</v>
       </c>
       <c r="G19">
-        <v>0.002432133474401495</v>
+        <v>0.0007709774092642338</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8758320172399738</v>
+        <v>0.2501545148716744</v>
       </c>
       <c r="J19">
-        <v>0.2826111802857127</v>
+        <v>0.3317229916460747</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4654984510403324</v>
+        <v>0.997152232113109</v>
       </c>
       <c r="M19">
-        <v>0.3604655988962548</v>
+        <v>0.6940105167666317</v>
       </c>
       <c r="N19">
-        <v>1.649162415998632</v>
+        <v>1.229563395274866</v>
       </c>
       <c r="O19">
-        <v>3.451599528082596</v>
+        <v>3.153827579276083</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.143333740977027</v>
+        <v>2.051437170137149</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2045821500116034</v>
+        <v>0.1090955688876747</v>
       </c>
       <c r="E20">
-        <v>0.2157919001327002</v>
+        <v>0.1945777887145255</v>
       </c>
       <c r="F20">
-        <v>1.373158434163727</v>
+        <v>0.9826118765883223</v>
       </c>
       <c r="G20">
-        <v>0.002431007508219919</v>
+        <v>0.0007692182017995368</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8714922989002005</v>
+        <v>0.243458475282992</v>
       </c>
       <c r="J20">
-        <v>0.2849708002551097</v>
+        <v>0.3392270807293869</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4765829669470349</v>
+        <v>1.036113905870337</v>
       </c>
       <c r="M20">
-        <v>0.3681297178765846</v>
+        <v>0.7207559570171753</v>
       </c>
       <c r="N20">
-        <v>1.649747646121853</v>
+        <v>1.235638055996702</v>
       </c>
       <c r="O20">
-        <v>3.466743832866428</v>
+        <v>3.252721519582053</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.216270443002372</v>
+        <v>2.304962097739406</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2050449420198461</v>
+        <v>0.1119659791351246</v>
       </c>
       <c r="E21">
-        <v>0.2192567981121734</v>
+        <v>0.2061949860744363</v>
       </c>
       <c r="F21">
-        <v>1.381610890502714</v>
+        <v>1.067884596383536</v>
       </c>
       <c r="G21">
-        <v>0.002427349766696458</v>
+        <v>0.0007634030488036298</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8574393781750178</v>
+        <v>0.2220836467519689</v>
       </c>
       <c r="J21">
-        <v>0.2928835031689943</v>
+        <v>0.3644793878028594</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5138966266431737</v>
+        <v>1.167626720704618</v>
       </c>
       <c r="M21">
-        <v>0.3939415861591513</v>
+        <v>0.8109701454083691</v>
       </c>
       <c r="N21">
-        <v>1.652367628024479</v>
+        <v>1.257635070003829</v>
       </c>
       <c r="O21">
-        <v>3.520115985136442</v>
+        <v>3.593821470211594</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.264084329961747</v>
+        <v>2.471408712817777</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2053592162832061</v>
+        <v>0.1138874201374165</v>
       </c>
       <c r="E22">
-        <v>0.2215207410731672</v>
+        <v>0.2138218413280875</v>
       </c>
       <c r="F22">
-        <v>1.387827347898565</v>
+        <v>1.125874202503212</v>
       </c>
       <c r="G22">
-        <v>0.002425052254181857</v>
+        <v>0.0007596701153013128</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8486487822407511</v>
+        <v>0.2089911604609789</v>
       </c>
       <c r="J22">
-        <v>0.2980428212446498</v>
+        <v>0.3810206859654244</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5383339117312005</v>
+        <v>1.25410083897404</v>
       </c>
       <c r="M22">
-        <v>0.4108550025281659</v>
+        <v>0.8702333323176035</v>
       </c>
       <c r="N22">
-        <v>1.654564930673217</v>
+        <v>1.273248154620333</v>
       </c>
       <c r="O22">
-        <v>3.556854928287464</v>
+        <v>3.823956261007481</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.238552233678547</v>
+        <v>2.382497661533819</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2051904071015755</v>
+        <v>0.1128574374673263</v>
       </c>
       <c r="E23">
-        <v>0.2203125048377075</v>
+        <v>0.2097477474771523</v>
       </c>
       <c r="F23">
-        <v>1.384446143884517</v>
+        <v>1.094705523671763</v>
       </c>
       <c r="G23">
-        <v>0.002426269992279939</v>
+        <v>0.0007616565064521854</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8533044353549979</v>
+        <v>0.2158959345531564</v>
       </c>
       <c r="J23">
-        <v>0.2952903466242134</v>
+        <v>0.3721883146363751</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5252867932804293</v>
+        <v>1.207895393866892</v>
       </c>
       <c r="M23">
-        <v>0.4018241051809142</v>
+        <v>0.8385730642838709</v>
       </c>
       <c r="N23">
-        <v>1.653347952906586</v>
+        <v>1.264798415270647</v>
       </c>
       <c r="O23">
-        <v>3.537076617681976</v>
+        <v>3.700427819011054</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.142144172777023</v>
+        <v>2.047304769339746</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2045747866422545</v>
+        <v>0.1090493545355677</v>
       </c>
       <c r="E24">
-        <v>0.2157352632132188</v>
+        <v>0.1943884161552774</v>
       </c>
       <c r="F24">
-        <v>1.373031966094942</v>
+        <v>0.9812537140787896</v>
       </c>
       <c r="G24">
-        <v>0.002431068868149144</v>
+        <v>0.0007693144408181476</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8717286301866842</v>
+        <v>0.2438220644929192</v>
       </c>
       <c r="J24">
-        <v>0.2848412769900222</v>
+        <v>0.3388148620506115</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4759739842498334</v>
+        <v>1.033972205244908</v>
       </c>
       <c r="M24">
-        <v>0.3677086048153768</v>
+        <v>0.7192859935455829</v>
       </c>
       <c r="N24">
-        <v>1.649713043204287</v>
+        <v>1.235298627359654</v>
       </c>
       <c r="O24">
-        <v>3.465902819521204</v>
+        <v>3.247259047086459</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.038816533331669</v>
+        <v>1.688374223882619</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2039620441496517</v>
+        <v>0.1051084818266972</v>
       </c>
       <c r="E25">
-        <v>0.2107976084361916</v>
+        <v>0.1779360943669417</v>
       </c>
       <c r="F25">
-        <v>1.363690126009004</v>
+        <v>0.8674575930187416</v>
       </c>
       <c r="G25">
-        <v>0.002436647222660006</v>
+        <v>0.0007778877941265961</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8932908129163302</v>
+        <v>0.2774561085082325</v>
       </c>
       <c r="J25">
-        <v>0.2735227871354837</v>
+        <v>0.3029275811047043</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4230150890209075</v>
+        <v>0.8481693983513594</v>
       </c>
       <c r="M25">
-        <v>0.3311103836876015</v>
+        <v>0.5916659988002522</v>
       </c>
       <c r="N25">
-        <v>1.647888821900978</v>
+        <v>1.208446405518828</v>
       </c>
       <c r="O25">
-        <v>3.39709170153742</v>
+        <v>2.785442858785785</v>
       </c>
     </row>
   </sheetData>
